--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\01-Dataset1_CV\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7B7C8E-1A37-47B6-BCA7-CE2F515ED2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306B34C-89A9-4F2E-9755-12DDA22468DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13395" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13665" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
   <si>
     <t>URI du Graphe</t>
   </si>
@@ -265,13 +265,7 @@
     <t>La liste de code de langues autorisés pour cette valeur</t>
   </si>
   <si>
-    <t>rdf:langString</t>
-  </si>
-  <si>
     <t>sh:node</t>
-  </si>
-  <si>
-    <t>("hu" "et" "fi" "cs" "lk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
   </si>
   <si>
     <t>epsh:Civility</t>
@@ -382,9 +376,6 @@
     <t>skos:altLabel</t>
   </si>
   <si>
-    <t>rdf:langLiteral</t>
-  </si>
-  <si>
     <t>scheme:Gender</t>
   </si>
   <si>
@@ -422,6 +413,9 @@
   </si>
   <si>
     <t>("en" "fr")</t>
+  </si>
+  <si>
+    <t>("hu" "et" "fi" "cs" "sk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
   </si>
 </sst>
 </file>
@@ -972,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView windowProtection="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView windowProtection="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1120,17 +1114,17 @@
     </row>
     <row r="9" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1140,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>47</v>
@@ -1151,17 +1145,17 @@
     </row>
     <row r="10" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1171,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
@@ -1182,17 +1176,17 @@
     </row>
     <row r="11" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1202,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
@@ -1213,17 +1207,17 @@
     </row>
     <row r="12" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1233,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>47</v>
@@ -1301,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -1467,7 +1461,7 @@
         <v>31</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>46</v>
@@ -1476,7 +1470,7 @@
         <v>75</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AMM8"/>
       <c r="AMN8"/>
@@ -1510,7 +1504,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>39</v>
@@ -1543,12 +1537,12 @@
         <v>74</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:21 1027:1028" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T10" s="20"/>
     </row>
@@ -1558,10 +1552,10 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1581,7 +1575,7 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="U11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1590,10 +1584,10 @@
         <v>epsh:P12</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1608,7 +1602,7 @@
         <v>73</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1620,7 +1614,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1642,20 +1636,20 @@
         <v>epsh:P14</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14"/>
       <c r="L14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:21 1027:1028" ht="51" x14ac:dyDescent="0.2">
@@ -1667,7 +1661,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1676,13 +1670,13 @@
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="S15" t="s">
         <v>47</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1690,7 +1684,7 @@
     </row>
     <row r="18" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T18" s="20"/>
     </row>
@@ -1700,10 +1694,10 @@
         <v>epsh:P19</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1723,7 +1717,7 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="U19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1735,7 +1729,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1756,10 +1750,10 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1783,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1807,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>24</v>
@@ -1819,18 +1813,18 @@
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s">
         <v>47</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T25" s="20"/>
     </row>
@@ -1840,10 +1834,10 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -1863,7 +1857,7 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="U26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1875,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1896,10 +1890,10 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1911,7 +1905,7 @@
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1920,10 +1914,10 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1935,7 +1929,7 @@
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1944,10 +1938,10 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1965,10 +1959,10 @@
         <v>epsh:P31</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1986,10 +1980,10 @@
         <v>epsh:P32</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -2004,7 +1998,7 @@
         <v>73</v>
       </c>
       <c r="R32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2013,10 +2007,10 @@
         <v>epsh:P33</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2040,7 +2034,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2052,13 +2046,13 @@
         <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s">
         <v>47</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -2067,10 +2061,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2082,15 +2076,15 @@
         <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T36" s="20"/>
     </row>
@@ -2100,10 +2094,10 @@
         <v>epsh:P37</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -2123,7 +2117,7 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="U37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -2135,7 +2129,7 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2159,7 +2153,7 @@
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2171,13 +2165,13 @@
         <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s">
         <v>47</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00-Clients\EP\20-Repository\ep-graph-poc\01-Dataset1_CV\04-SHACL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306B34C-89A9-4F2E-9755-12DDA22468DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A90BD8C-2665-4BA8-A88B-2EB44D11E4B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26940" windowHeight="13665" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14220" tabRatio="994" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="120">
   <si>
     <t>URI du Graphe</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>xsd:integer</t>
-  </si>
-  <si>
-    <t>rdf:plainLiteral</t>
   </si>
   <si>
     <t>sh:languageIn</t>
@@ -416,6 +413,12 @@
   </si>
   <si>
     <t>("hu" "et" "fi" "cs" "sk" "lt" "lv" "mt" "en" "da" "nl" "sv" "hr" "sl" "pl" "de" "ro" "it" "pt" "es" "fr" "ga" "el" "bg")</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>rdf:langString</t>
   </si>
 </sst>
 </file>
@@ -1114,17 +1117,17 @@
     </row>
     <row r="9" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1134,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>47</v>
@@ -1145,17 +1148,17 @@
     </row>
     <row r="10" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1165,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>47</v>
@@ -1176,17 +1179,17 @@
     </row>
     <row r="11" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1196,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>47</v>
@@ -1207,17 +1210,17 @@
     </row>
     <row r="12" spans="1:11 1025:1025" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1227,7 +1230,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>47</v>
@@ -1295,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN39"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
@@ -1367,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>55</v>
@@ -1461,16 +1464,16 @@
         <v>31</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>46</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AMM8"/>
       <c r="AMN8"/>
@@ -1504,7 +1507,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>39</v>
@@ -1534,15 +1537,15 @@
         <v>45</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:21 1027:1028" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T10" s="20"/>
     </row>
@@ -1552,10 +1555,10 @@
         <v>epsh:P11</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="U11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1584,10 +1587,10 @@
         <v>epsh:P12</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1599,10 +1602,10 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1614,7 +1617,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1626,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="R13" s="13"/>
     </row>
@@ -1636,20 +1639,20 @@
         <v>epsh:P14</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14"/>
       <c r="L14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:21 1027:1028" ht="51" x14ac:dyDescent="0.2">
@@ -1661,7 +1664,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1670,13 +1673,13 @@
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="S15" t="s">
         <v>47</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:21 1027:1028" x14ac:dyDescent="0.2">
@@ -1684,7 +1687,7 @@
     </row>
     <row r="18" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T18" s="20"/>
     </row>
@@ -1694,10 +1697,10 @@
         <v>epsh:P19</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1717,7 +1720,7 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="U19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -1729,7 +1732,7 @@
         <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -1750,10 +1753,10 @@
         <v>epsh:P21</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1765,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1777,7 +1780,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1789,7 +1792,7 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -1801,7 +1804,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23">
         <v>24</v>
@@ -1813,18 +1816,18 @@
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="S23" t="s">
         <v>47</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T25" s="20"/>
     </row>
@@ -1834,10 +1837,10 @@
         <v>epsh:P26</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="U26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -1869,7 +1872,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -1881,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -1890,10 +1893,10 @@
         <v>epsh:P28</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -1905,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -1914,10 +1917,10 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -1929,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -1938,10 +1941,10 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1959,10 +1962,10 @@
         <v>epsh:P31</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1980,10 +1983,10 @@
         <v>epsh:P32</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1995,10 +1998,10 @@
         <v>44</v>
       </c>
       <c r="M32" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="R32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,10 +2010,10 @@
         <v>epsh:P33</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2034,7 +2037,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2046,13 +2049,13 @@
         <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="S34" t="s">
         <v>47</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="51" x14ac:dyDescent="0.2">
@@ -2061,10 +2064,10 @@
         <v>epsh:P35</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2076,15 +2079,15 @@
         <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T36" s="20"/>
     </row>
@@ -2094,10 +2097,10 @@
         <v>epsh:P37</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -2117,7 +2120,7 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="U37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -2129,7 +2132,7 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2141,7 +2144,7 @@
         <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -2153,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -2165,13 +2168,13 @@
         <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="S39" t="s">
         <v>47</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">eponto</t>
   </si>
   <si>
-    <t xml:space="preserve">http://data.europa.eu/ontology/ep#</t>
+    <t xml:space="preserve">http://data.europarl.europa.eu/ontology/ep#</t>
   </si>
   <si>
     <t xml:space="preserve">Cette feuille spécifie la liste de Shapes basées sur des classes</t>
@@ -128,34 +128,7 @@
     <t xml:space="preserve">sh:IRI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/civility/.*$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/civility/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
@@ -173,34 +146,7 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/gender/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/gender/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:Country</t>
@@ -212,34 +158,7 @@
     <t xml:space="preserve">Country</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/country/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/country/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">epsh:ConceptStatus</t>
@@ -251,34 +170,7 @@
     <t xml:space="preserve">Concept Status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://data.europarl.europa.eu/authority/conceptStatus/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.*$"</t>
-    </r>
+    <t xml:space="preserve">"^http://data.europarl.europa.eu/authority/conceptStatus/.*$"</t>
   </si>
   <si>
     <t xml:space="preserve">scheme</t>
@@ -677,14 +569,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,12 +617,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -833,11 +725,11 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -846,7 +738,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="53.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.57"/>
@@ -867,11 +759,11 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -880,11 +772,11 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -893,21 +785,21 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -1009,7 +901,7 @@
       <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1040,7 +932,7 @@
       <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="15" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1071,7 +963,7 @@
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1102,7 +994,7 @@
       <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="15" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1113,10 +1005,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
@@ -1151,10 +1043,10 @@
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
     <hyperlink ref="E10" r:id="rId2" display="rdfs:label@fr"/>
     <hyperlink ref="G10" r:id="rId3" display="rdfs:comment@fr"/>
-    <hyperlink ref="I11" r:id="rId4" display="http://data.europarl.europa.eu/authority/civility/.*$"/>
-    <hyperlink ref="I12" r:id="rId5" display="http://data.europarl.europa.eu/authority/gender/"/>
-    <hyperlink ref="I13" r:id="rId6" display="http://data.europarl.europa.eu/authority/country/"/>
-    <hyperlink ref="I14" r:id="rId7" display="http://data.europarl.europa.eu/authority/conceptStatus/"/>
+    <hyperlink ref="I11" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="I13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
+    <hyperlink ref="I14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1173,21 +1065,21 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U39" activeCellId="0" sqref="U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.14"/>
@@ -1216,7 +1108,7 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="1"/>
@@ -1228,7 +1120,7 @@
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q3" s="1"/>
@@ -1240,7 +1132,7 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1252,13 +1144,13 @@
       <c r="B5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -1283,7 +1175,7 @@
       <c r="R7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" s="11" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
@@ -1503,7 +1395,7 @@
       <c r="M14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="R14" s="16"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
@@ -1573,7 +1465,7 @@
       <c r="Q17" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="16"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="19" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="s">

--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -556,7 +556,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,10 +571,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -725,11 +721,11 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -785,7 +781,7 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
@@ -802,81 +798,81 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -890,7 +886,7 @@
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
@@ -901,7 +897,7 @@
       <c r="H11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -921,7 +917,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
@@ -932,7 +928,7 @@
       <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -952,7 +948,7 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
@@ -963,7 +959,7 @@
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -983,7 +979,7 @@
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
@@ -994,7 +990,7 @@
       <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1005,16 +1001,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="16"/>
+      <c r="D15" s="15"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,13 +1061,13 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="U39" activeCellId="0" sqref="U39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1132,7 +1128,7 @@
       <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1153,165 +1149,165 @@
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="11" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="10" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+    <row r="11" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="21"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="str">
@@ -1395,7 +1391,7 @@
       <c r="M14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="R14" s="15"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
@@ -1454,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>2</v>
@@ -1465,13 +1461,13 @@
       <c r="Q17" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="19" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="R17" s="14"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="21"/>
+      <c r="T19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="str">
@@ -1628,11 +1624,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
+    <row r="26" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="T26" s="21"/>
+      <c r="T26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="str">
@@ -1909,11 +1905,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+    <row r="38" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="T38" s="21"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="str">

--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
-  <si>
-    <t xml:space="preserve">URI du Graphe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/shapes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
+  <si>
+    <t xml:space="preserve">Shapes URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://data.europarl.europa.eu/shapes/cv</t>
   </si>
   <si>
     <t xml:space="preserve">@prefix</t>
@@ -50,51 +50,66 @@
     <t xml:space="preserve">http://data.europarl.europa.eu/ontology/ep#</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette feuille spécifie la liste de Shapes basées sur des classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’URI de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’ensemble des objets contrôlés par cette Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'ensemble des objets contrôlés par cette Shape, exprimé comme une requête SPARQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un libellé pour la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’ordre dans lequel la Shape sera affichée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La description textuelle de la Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de nœuds qui doivent répondre à cette Shape (toujours sh:IRI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'expression régulière des URIs ciblées par cette Shapes</t>
+    <t xml:space="preserve">rdf:type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owl:Ontology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdfs:label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlled Vocabularies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet specifies the NodeShape with their targets, that is the sets of entities being validated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeShape URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of Shape (always NodeShape)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set of entities validated by this Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for the Shape (French)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label for the Shape (English)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order in which Shape shall be printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textual description of the Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type that the nodes controlled by this Shape must have (always sh:IRI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular expression that the nodes controlled by this Shape must follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether the shape operates in closed world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Properties to ignore when testing for closed world constraint (a list, always containing rdf:type)</t>
   </si>
   <si>
     <t xml:space="preserve">URI</t>
   </si>
   <si>
-    <t xml:space="preserve">rdf:type</t>
-  </si>
-  <si>
     <t xml:space="preserve">sh:targetClass</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:target</t>
-  </si>
-  <si>
     <t xml:space="preserve">rdfs:label@fr</t>
   </si>
   <si>
+    <t xml:space="preserve">rdfs:label@en</t>
+  </si>
+  <si>
     <t xml:space="preserve">sh:order^^xsd:integer</t>
   </si>
   <si>
@@ -122,6 +137,9 @@
     <t xml:space="preserve">eponto:Civility</t>
   </si>
   <si>
+    <t xml:space="preserve">Civilité</t>
+  </si>
+  <si>
     <t xml:space="preserve">Civility</t>
   </si>
   <si>
@@ -143,6 +161,9 @@
     <t xml:space="preserve">eponto:Gender</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
@@ -155,6 +176,9 @@
     <t xml:space="preserve">eponto:Country</t>
   </si>
   <si>
+    <t xml:space="preserve">Pays</t>
+  </si>
+  <si>
     <t xml:space="preserve">Country</t>
   </si>
   <si>
@@ -167,6 +191,9 @@
     <t xml:space="preserve">eponto:ConceptStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Statut de Concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concept Status</t>
   </si>
   <si>
@@ -179,70 +206,70 @@
     <t xml:space="preserve">http://data.europarl.europa.eu/authority/</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette feuille spécifie les contraintes sur les propriétés attachées à chaque Shape de la première feuille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le prédicat ou path sur lequel la contrainte s’applique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Shape à laquelle la contrainte est attachée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le niveau de sévérité de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nom de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La description textuelle de la contrainte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cardinalité minimum que le prédicat ou le path doit avoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La cardinalité maximum que le prédicat ou le path doit avoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classe attendue comme valeur de la propriété, quand il n’y en a qu’une</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape attendue comme valeur de la propriété</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classes attendues comme valeur de la propriété, quand il y en a plusieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type de nœud que les valeurs devraient avoir (sh:IRI or sh:Literal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour les valeurs litérales, le type de données attendu pour les valeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le type d'objet pour lequel les qualifiedMin ou MaxCount doivent être vérifié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nombre de fois minimum que le type indiqué dans sh:qualifiedValueShape doit être trouvé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nombre de fois maximum que le type indiqué dans sh:qualifiedValueShape doit être trouvé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La liste des valeurs possibles pour la propriété, quand la liste de valeurs possible est petite et connue à l’avance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La forme des URIs ou des valeurs attendues comme valeur de la propriété</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à true dans le cas des skos:prefLabel pour indiquer qu'il ne faut qu'une seule valeur maximum par langue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La liste de code de langues autorisés pour cette valeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La valeur que doit avoir la propriété quand il n'y en a qu'une</t>
+    <t xml:space="preserve">This sheet specifies constraints that are attached to the NodeShapes specified in the first sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraint IRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicate or path on which the constraint applies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeShape to which the constraint is applied (a reference to a NodeShape IRI from the first sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display order of the property / constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description of the predicate/path within the context of that NodeShape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum cardinality that the predicate/path must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected class that the values of the predicate/path must have, if only one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected shape that the values of the predicate/path must follow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected classes that the values of the predicate/path must have, if there are multiple. Expressed as a Turtle list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of nodes that the values must have (sh:IRI or sh:Literal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For literal values, the expected datatype of the values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The shape that must be verified by the qualifiedMin or qualifiedMax count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of time that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number of times that the shape indicated by sh:qualifiedValueShape must be found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected possible values for the predicate/path, when the list is small and known in advance. Expressed as a Turtle list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General URI or string pattern expected for the values of the predicate/path, expressed as a regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set to true for skos:prefLabel to indicate there should be only one value per langage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of langage codes expected for this predicate/path. Expressed as a turtle list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected value for the predicate/path</t>
   </si>
   <si>
     <t xml:space="preserve">sh:path</t>
@@ -251,10 +278,7 @@
     <t xml:space="preserve">^sh:property(separator=",")</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sh:name@fr</t>
+    <t xml:space="preserve">sh:name@en</t>
   </si>
   <si>
     <t xml:space="preserve">sh:description</t>
@@ -305,7 +329,7 @@
     <t xml:space="preserve">skos:inScheme</t>
   </si>
   <si>
-    <t xml:space="preserve">sh:Violation</t>
+    <t xml:space="preserve">in scheme</t>
   </si>
   <si>
     <t xml:space="preserve">scheme:civility</t>
@@ -314,6 +338,9 @@
     <t xml:space="preserve">eponto:isoLanguage</t>
   </si>
   <si>
+    <t xml:space="preserve">ISO langage</t>
+  </si>
+  <si>
     <t xml:space="preserve">sh:Literal</t>
   </si>
   <si>
@@ -323,12 +350,15 @@
     <t xml:space="preserve">[a-z][a-z]</t>
   </si>
   <si>
-    <t xml:space="preserve">rdfs:label</t>
+    <t xml:space="preserve">default label</t>
   </si>
   <si>
     <t xml:space="preserve">skos:altLabel</t>
   </si>
   <si>
+    <t xml:space="preserve">alternative label</t>
+  </si>
+  <si>
     <t xml:space="preserve">rdf:langString</t>
   </si>
   <si>
@@ -338,6 +368,15 @@
     <t xml:space="preserve">skos:prefLabel</t>
   </si>
   <si>
+    <t xml:space="preserve">preferred label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 types are expected : the class of the controlled vocabulary and skos:Concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">(skos:Concept eponto:Civility)</t>
   </si>
   <si>
@@ -350,9 +389,15 @@
     <t xml:space="preserve">eponto:isoCode</t>
   </si>
   <si>
+    <t xml:space="preserve">ISO code</t>
+  </si>
+  <si>
     <t xml:space="preserve">skos:notation</t>
   </si>
   <si>
+    <t xml:space="preserve">notation</t>
+  </si>
+  <si>
     <t xml:space="preserve">(skos:Concept eponto:Gender)</t>
   </si>
   <si>
@@ -365,21 +410,33 @@
     <t xml:space="preserve">eponto:euCandidate</t>
   </si>
   <si>
+    <t xml:space="preserve">EU candidate</t>
+  </si>
+  <si>
     <t xml:space="preserve">xsd:boolean</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:euCountry</t>
   </si>
   <si>
+    <t xml:space="preserve">EU country</t>
+  </si>
+  <si>
     <t xml:space="preserve">eponto:euStartDate</t>
   </si>
   <si>
+    <t xml:space="preserve">EU start date</t>
+  </si>
+  <si>
     <t xml:space="preserve">xsd:date</t>
   </si>
   <si>
     <t xml:space="preserve">eponto:formalOrder</t>
   </si>
   <si>
+    <t xml:space="preserve">formal order</t>
+  </si>
+  <si>
     <t xml:space="preserve">xsd:integer</t>
   </si>
   <si>
@@ -389,6 +446,12 @@
     <t xml:space="preserve">eponto:isoNumber</t>
   </si>
   <si>
+    <t xml:space="preserve">ISO number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 values are expected</t>
+  </si>
+  <si>
     <t xml:space="preserve">(skos:Concept eponto:Country)</t>
   </si>
   <si>
@@ -396,6 +459,12 @@
   </si>
   <si>
     <t xml:space="preserve">scheme:conceptStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The (default) label</t>
   </si>
   <si>
     <t xml:space="preserve">("en" "fr")</t>
@@ -411,7 +480,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,13 +528,6 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <strike val="true"/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -556,7 +618,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -609,35 +671,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -719,20 +777,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="53.07"/>
@@ -740,7 +797,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -758,7 +815,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +828,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,265 +841,299 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3"/>
+      <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" s="8" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="9" s="8" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="H11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="I11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+      <c r="K11" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="15"/>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="1"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="14"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
-    <hyperlink ref="E10" r:id="rId2" display="rdfs:label@fr"/>
-    <hyperlink ref="G10" r:id="rId3" display="rdfs:comment@fr"/>
-    <hyperlink ref="I11" r:id="rId4" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
-    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
-    <hyperlink ref="I13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
-    <hyperlink ref="I14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/cv"/>
+    <hyperlink ref="D11" r:id="rId2" display="rdfs:label@fr"/>
+    <hyperlink ref="E11" r:id="rId3" display="rdfs:label@en"/>
+    <hyperlink ref="G11" r:id="rId4" display="rdfs:comment@fr"/>
+    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="I13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="I14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
+    <hyperlink ref="I15" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1059,20 +1150,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.4"/>
@@ -1088,7 +1180,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1107,6 +1199,7 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,6 +1212,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,6 +1225,7 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,219 +1233,204 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" s="10" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="10" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="M10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="N10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="O10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="P10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="Q10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="R10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="S10" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="U10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="11" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="D11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="17" t="s">
+      <c r="I11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="J11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="K11" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="L11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="T11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A12))</f>
-        <v>epsh:P12</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="N11" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="O11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f aca="false">CONCATENATE("Contraintes de ", B12, " sur un ", C12)</f>
-        <v>Contraintes de skos:inScheme sur un epsh:Civility</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="U12" s="0" t="s">
+      <c r="P11" s="16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A13))</f>
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
@@ -1359,25 +1439,29 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="U13" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
@@ -1386,131 +1470,159 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A15))</f>
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A16))</f>
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A17))</f>
         <v>epsh:P17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="G17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A18))</f>
+        <v>epsh:P18</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="R17" s="14"/>
-    </row>
-    <row r="19" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="T19" s="20"/>
-    </row>
-    <row r="20" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A20))</f>
-        <v>epsh:P20</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f aca="false">CONCATENATE("Contraintes de ", B20, " sur un ", C20)</f>
-        <v>Contraintes de skos:inScheme sur un epsh:Gender</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="U20" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="20" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A21))</f>
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -1519,22 +1631,29 @@
         <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="U21" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A22))</f>
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
@@ -1543,22 +1662,28 @@
         <v>1</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A23))</f>
         <v>epsh:P23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1</v>
@@ -1567,111 +1692,130 @@
         <v>1</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A24))</f>
         <v>epsh:P24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
         <v>epsh:P25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A26))</f>
+        <v>epsh:P26</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q25" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T26" s="20"/>
-    </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A27))</f>
-        <v>epsh:P27</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f aca="false">CONCATENATE("Contraintes de ", B27, " sur un ", C27)</f>
-        <v>Contraintes de skos:inScheme sur un epsh:Country</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="U27" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q26" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A28))</f>
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1680,22 +1824,29 @@
         <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="U28" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A29))</f>
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1704,22 +1855,28 @@
         <v>1</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A30))</f>
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
@@ -1728,82 +1885,97 @@
         <v>1</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A31))</f>
         <v>epsh:P31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A32))</f>
         <v>epsh:P32</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A33))</f>
         <v>epsh:P33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A34))</f>
         <v>epsh:P34</v>
@@ -1812,7 +1984,13 @@
         <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1</v>
@@ -1821,40 +1999,43 @@
         <v>1</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A35))</f>
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,10 +2044,19 @@
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>24</v>
@@ -1875,84 +2065,106 @@
         <v>24</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A37))</f>
         <v>epsh:P37</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G37" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A38))</f>
+        <v>epsh:P38</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q37" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" s="19" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="T38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A39))</f>
-        <v>epsh:P39</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f aca="false">CONCATENATE("Contraintes de ", B39, " sur un ", C39)</f>
-        <v>Contraintes de skos:inScheme sur un epsh:ConceptStatus</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="U39" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q38" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T39" s="19"/>
+    </row>
+    <row r="40" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1</v>
@@ -1961,10 +2173,11 @@
         <v>1</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>98</v>
+        <v>40</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="U40" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,28 +2186,31 @@
         <v>epsh:P41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="S41" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,26 +2219,71 @@
         <v>epsh:P42</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q42" s="0" t="s">
-        <v>126</v>
+      <c r="L42" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A43))</f>
+        <v>epsh:P43</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/cv"/>
     <hyperlink ref="C5" r:id="rId2" display="http://data.europarl.europa.eu/authority/"/>
-    <hyperlink ref="E10" r:id="rId3" display="sh:name@fr"/>
+    <hyperlink ref="E11" r:id="rId3" display="sh:name@en"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
+++ b/01-Dataset1_CV/04-SHACL/Dataset1_CV-Shapes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="class-based shapes" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="148">
   <si>
     <t xml:space="preserve">Shapes URI</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">@prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://data.europarl.europa.eu/</t>
   </si>
   <si>
     <t xml:space="preserve">epsh</t>
@@ -777,13 +771,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.58"/>
@@ -833,14 +827,12 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -856,251 +848,243 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" s="8" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="10" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="A11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="B11" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="K12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="14"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="14"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,10 +1093,10 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,20 +1104,17 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/cv"/>
-    <hyperlink ref="D11" r:id="rId2" display="rdfs:label@fr"/>
-    <hyperlink ref="E11" r:id="rId3" display="rdfs:label@en"/>
-    <hyperlink ref="G11" r:id="rId4" display="rdfs:comment@fr"/>
-    <hyperlink ref="I12" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
-    <hyperlink ref="I13" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
-    <hyperlink ref="I14" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
-    <hyperlink ref="I15" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
+    <hyperlink ref="D10" r:id="rId2" display="rdfs:label@fr"/>
+    <hyperlink ref="E10" r:id="rId3" display="rdfs:label@en"/>
+    <hyperlink ref="G10" r:id="rId4" display="rdfs:comment@fr"/>
+    <hyperlink ref="I11" r:id="rId5" display="&quot;^http://data.europarl.europa.eu/authority/civility/.*$&quot;"/>
+    <hyperlink ref="I12" r:id="rId6" display="&quot;^http://data.europarl.europa.eu/authority/gender/.*$&quot;"/>
+    <hyperlink ref="I13" r:id="rId7" display="&quot;^http://data.europarl.europa.eu/authority/country/.*$&quot;"/>
+    <hyperlink ref="I14" r:id="rId8" display="&quot;^http://data.europarl.europa.eu/authority/conceptStatus/.*$&quot;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1150,15 +1131,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
@@ -1220,217 +1201,263 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A11))</f>
+        <v>epsh:P11</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="U11" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A12))</f>
+        <v>epsh:P12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T12" s="19"/>
-    </row>
-    <row r="13" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A13))</f>
         <v>epsh:P13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
@@ -1439,190 +1466,187 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="U13" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A14))</f>
         <v>epsh:P14</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="M14" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A15))</f>
         <v>epsh:P15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A16))</f>
         <v>epsh:P16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A17))</f>
-        <v>epsh:P17</v>
-      </c>
-      <c r="B17" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="S17" s="0" t="s">
+      <c r="G16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="18" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A19))</f>
+        <v>epsh:P19</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A18))</f>
-        <v>epsh:P18</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="U19" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A20))</f>
+        <v>epsh:P20</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="1" t="n">
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="T20" s="19"/>
-    </row>
-    <row r="21" customFormat="false" ht="62.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A21))</f>
         <v>epsh:P21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -1631,11 +1655,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="U21" s="0" t="s">
-        <v>120</v>
+        <v>104</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,16 +1667,16 @@
         <v>epsh:P22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
@@ -1662,160 +1685,161 @@
         <v>1</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A23))</f>
         <v>epsh:P23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A24))</f>
         <v>epsh:P24</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" s="0" t="s">
+    </row>
+    <row r="25" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A25))</f>
-        <v>epsh:P25</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A26))</f>
         <v>epsh:P26</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="U26" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A27))</f>
+        <v>epsh:P27</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="1" t="n">
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="T27" s="19"/>
-    </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A28))</f>
         <v>epsh:P28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1824,11 +1848,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="U28" s="0" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,16 +1860,16 @@
         <v>epsh:P29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1855,10 +1878,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,28 +1890,25 @@
         <v>epsh:P30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,28 +1917,25 @@
         <v>epsh:P31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,363 +1944,309 @@
         <v>epsh:P32</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A33))</f>
         <v>epsh:P33</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A34))</f>
         <v>epsh:P34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="R34" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A35))</f>
         <v>epsh:P35</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="G35" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A36))</f>
         <v>epsh:P36</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="S36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A37))</f>
-        <v>epsh:P37</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T37" s="19"/>
+    </row>
+    <row r="38" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A38))</f>
         <v>epsh:P38</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="U38" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="str">
+        <f aca="false">CONCATENATE("epsh:P",ROW(A39))</f>
+        <v>epsh:P39</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="1" t="n">
+      <c r="C39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
+      <c r="E39" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="T39" s="19"/>
-    </row>
-    <row r="40" customFormat="false" ht="52.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A40))</f>
         <v>epsh:P40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="1"/>
-      <c r="U40" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="str">
         <f aca="false">CONCATENATE("epsh:P",ROW(A41))</f>
         <v>epsh:P41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A42))</f>
-        <v>epsh:P42</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="str">
-        <f aca="false">CONCATENATE("epsh:P",ROW(A43))</f>
-        <v>epsh:P43</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="http://data.europarl.europa.eu/shapes/cv"/>
-    <hyperlink ref="C5" r:id="rId2" display="http://data.europarl.europa.eu/authority/"/>
-    <hyperlink ref="E11" r:id="rId3" display="sh:name@en"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://data.europarl.europa.eu/authority/"/>
+    <hyperlink ref="E9" r:id="rId3" display="sh:name@en"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
